--- a/stock_predictor_ai/data/company_sentiment_ready/JCI_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/JCI_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9504"/>
+  <dimension ref="A1:B9565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76473,6 +76473,494 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9505">
+      <c r="A9505" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B9505" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9506">
+      <c r="A9506" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B9506" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9507">
+      <c r="A9507" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B9507" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9508">
+      <c r="A9508" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B9508" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9509">
+      <c r="A9509" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B9509" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9510">
+      <c r="A9510" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B9510" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9511">
+      <c r="A9511" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B9511" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9512">
+      <c r="A9512" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B9512" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9513">
+      <c r="A9513" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B9513" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9514">
+      <c r="A9514" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B9514" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9515">
+      <c r="A9515" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B9515" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9516">
+      <c r="A9516" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B9516" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9517">
+      <c r="A9517" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B9517" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9518">
+      <c r="A9518" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B9518" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9519">
+      <c r="A9519" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B9519" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9520">
+      <c r="A9520" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B9520" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9521">
+      <c r="A9521" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B9521" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9522">
+      <c r="A9522" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B9522" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9523">
+      <c r="A9523" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B9523" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9524">
+      <c r="A9524" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B9524" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9525">
+      <c r="A9525" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B9525" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9526">
+      <c r="A9526" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B9526" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9527">
+      <c r="A9527" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B9527" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9528">
+      <c r="A9528" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B9528" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9529">
+      <c r="A9529" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B9529" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9530">
+      <c r="A9530" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B9530" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9531">
+      <c r="A9531" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B9531" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9532">
+      <c r="A9532" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B9532" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9533">
+      <c r="A9533" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B9533" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9534">
+      <c r="A9534" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B9534" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9535">
+      <c r="A9535" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B9535" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9536">
+      <c r="A9536" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B9536" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9537">
+      <c r="A9537" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B9537" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9538">
+      <c r="A9538" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B9538" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9539">
+      <c r="A9539" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B9539" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9540">
+      <c r="A9540" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B9540" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9541">
+      <c r="A9541" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B9541" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9542">
+      <c r="A9542" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B9542" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9543">
+      <c r="A9543" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B9543" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9544">
+      <c r="A9544" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B9544" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9545">
+      <c r="A9545" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B9545" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9546">
+      <c r="A9546" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B9546" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9547">
+      <c r="A9547" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B9547" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9548">
+      <c r="A9548" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B9548" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9549">
+      <c r="A9549" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B9549" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9550">
+      <c r="A9550" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B9550" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9551">
+      <c r="A9551" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B9551" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9552">
+      <c r="A9552" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B9552" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9553">
+      <c r="A9553" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B9553" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9554">
+      <c r="A9554" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B9554" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9555">
+      <c r="A9555" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B9555" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9556">
+      <c r="A9556" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B9556" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9557">
+      <c r="A9557" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B9557" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9558">
+      <c r="A9558" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B9558" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9559">
+      <c r="A9559" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B9559" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9560">
+      <c r="A9560" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B9560" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9561">
+      <c r="A9561" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B9561" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9562">
+      <c r="A9562" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B9562" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9563">
+      <c r="A9563" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B9563" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9564">
+      <c r="A9564" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B9564" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9565">
+      <c r="A9565" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B9565" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
